--- a/MyCard/card_category.xlsx
+++ b/MyCard/card_category.xlsx
@@ -577,7 +577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>버스/택시/손해보험/화재보험차량유지/자동차/지하철/칼텍스</t>
+          <t>버스/택시/차량유지/자동차/지하철/칼텍스/자동차보험/차량보험</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
